--- a/Final_data/Strumenti/Conf_matrix_LDA.xlsx
+++ b/Final_data/Strumenti/Conf_matrix_LDA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marzio\Documents\GitHub\Exoplanets_Supervised_Learning\Final_data\Strumenti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D081B0-9D33-43E8-9019-64952A8D65CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DABE53A8-FE19-463F-9A51-C1A79AED66F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11475" yWindow="900" windowWidth="16320" windowHeight="14265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3390" yWindow="255" windowWidth="16770" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -359,8 +359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B1501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1477" workbookViewId="0">
-      <selection activeCell="A1501" sqref="A1501:B1501"/>
+    <sheetView tabSelected="1" topLeftCell="A1382" workbookViewId="0">
+      <selection activeCell="B1501" sqref="B1405:B1501"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10434,7 +10434,7 @@
         <v>0</v>
       </c>
       <c r="B1259">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1260" spans="1:2" x14ac:dyDescent="0.25">
@@ -10442,7 +10442,7 @@
         <v>0</v>
       </c>
       <c r="B1260">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1261" spans="1:2" x14ac:dyDescent="0.25">
@@ -10450,7 +10450,7 @@
         <v>0</v>
       </c>
       <c r="B1261">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1262" spans="1:2" x14ac:dyDescent="0.25">
@@ -10458,7 +10458,7 @@
         <v>0</v>
       </c>
       <c r="B1262">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1263" spans="1:2" x14ac:dyDescent="0.25">
@@ -10466,7 +10466,7 @@
         <v>0</v>
       </c>
       <c r="B1263">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1264" spans="1:2" x14ac:dyDescent="0.25">
@@ -10474,7 +10474,7 @@
         <v>0</v>
       </c>
       <c r="B1264">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1265" spans="1:2" x14ac:dyDescent="0.25">
@@ -10482,7 +10482,7 @@
         <v>0</v>
       </c>
       <c r="B1265">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1266" spans="1:2" x14ac:dyDescent="0.25">
@@ -10490,7 +10490,7 @@
         <v>0</v>
       </c>
       <c r="B1266">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1267" spans="1:2" x14ac:dyDescent="0.25">
@@ -10498,7 +10498,7 @@
         <v>0</v>
       </c>
       <c r="B1267">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1268" spans="1:2" x14ac:dyDescent="0.25">
@@ -10506,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="B1268">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1269" spans="1:2" x14ac:dyDescent="0.25">
@@ -10514,7 +10514,7 @@
         <v>0</v>
       </c>
       <c r="B1269">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1270" spans="1:2" x14ac:dyDescent="0.25">
@@ -10522,7 +10522,7 @@
         <v>0</v>
       </c>
       <c r="B1270">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1271" spans="1:2" x14ac:dyDescent="0.25">
@@ -10530,7 +10530,7 @@
         <v>0</v>
       </c>
       <c r="B1271">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1272" spans="1:2" x14ac:dyDescent="0.25">
@@ -10538,7 +10538,7 @@
         <v>0</v>
       </c>
       <c r="B1272">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1273" spans="1:2" x14ac:dyDescent="0.25">
@@ -10546,7 +10546,7 @@
         <v>0</v>
       </c>
       <c r="B1273">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1274" spans="1:2" x14ac:dyDescent="0.25">
@@ -10554,7 +10554,7 @@
         <v>0</v>
       </c>
       <c r="B1274">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1275" spans="1:2" x14ac:dyDescent="0.25">
@@ -10562,7 +10562,7 @@
         <v>0</v>
       </c>
       <c r="B1275">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1276" spans="1:2" x14ac:dyDescent="0.25">
@@ -10570,7 +10570,7 @@
         <v>0</v>
       </c>
       <c r="B1276">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1277" spans="1:2" x14ac:dyDescent="0.25">
@@ -10578,7 +10578,7 @@
         <v>0</v>
       </c>
       <c r="B1277">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1278" spans="1:2" x14ac:dyDescent="0.25">
@@ -10586,7 +10586,7 @@
         <v>0</v>
       </c>
       <c r="B1278">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1279" spans="1:2" x14ac:dyDescent="0.25">
@@ -10594,7 +10594,7 @@
         <v>0</v>
       </c>
       <c r="B1279">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1280" spans="1:2" x14ac:dyDescent="0.25">
@@ -10602,7 +10602,7 @@
         <v>0</v>
       </c>
       <c r="B1280">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1281" spans="1:2" x14ac:dyDescent="0.25">
@@ -10610,7 +10610,7 @@
         <v>0</v>
       </c>
       <c r="B1281">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1282" spans="1:2" x14ac:dyDescent="0.25">
@@ -10618,7 +10618,7 @@
         <v>0</v>
       </c>
       <c r="B1282">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1283" spans="1:2" x14ac:dyDescent="0.25">
@@ -10626,7 +10626,7 @@
         <v>0</v>
       </c>
       <c r="B1283">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1284" spans="1:2" x14ac:dyDescent="0.25">
@@ -10634,7 +10634,7 @@
         <v>0</v>
       </c>
       <c r="B1284">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1285" spans="1:2" x14ac:dyDescent="0.25">
@@ -10642,7 +10642,7 @@
         <v>0</v>
       </c>
       <c r="B1285">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1286" spans="1:2" x14ac:dyDescent="0.25">
@@ -10650,7 +10650,7 @@
         <v>0</v>
       </c>
       <c r="B1286">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1287" spans="1:2" x14ac:dyDescent="0.25">
@@ -10658,7 +10658,7 @@
         <v>0</v>
       </c>
       <c r="B1287">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1288" spans="1:2" x14ac:dyDescent="0.25">
@@ -10666,7 +10666,7 @@
         <v>0</v>
       </c>
       <c r="B1288">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1289" spans="1:2" x14ac:dyDescent="0.25">
@@ -10674,7 +10674,7 @@
         <v>0</v>
       </c>
       <c r="B1289">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1290" spans="1:2" x14ac:dyDescent="0.25">
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="B1290">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1291" spans="1:2" x14ac:dyDescent="0.25">
@@ -10690,7 +10690,7 @@
         <v>0</v>
       </c>
       <c r="B1291">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1292" spans="1:2" x14ac:dyDescent="0.25">
@@ -10698,7 +10698,7 @@
         <v>0</v>
       </c>
       <c r="B1292">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1293" spans="1:2" x14ac:dyDescent="0.25">
@@ -10706,7 +10706,7 @@
         <v>0</v>
       </c>
       <c r="B1293">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1294" spans="1:2" x14ac:dyDescent="0.25">
@@ -10714,7 +10714,7 @@
         <v>0</v>
       </c>
       <c r="B1294">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1295" spans="1:2" x14ac:dyDescent="0.25">
@@ -10722,7 +10722,7 @@
         <v>0</v>
       </c>
       <c r="B1295">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1296" spans="1:2" x14ac:dyDescent="0.25">
@@ -10730,7 +10730,7 @@
         <v>0</v>
       </c>
       <c r="B1296">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1297" spans="1:2" x14ac:dyDescent="0.25">
@@ -10738,7 +10738,7 @@
         <v>0</v>
       </c>
       <c r="B1297">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1298" spans="1:2" x14ac:dyDescent="0.25">
@@ -10746,7 +10746,7 @@
         <v>0</v>
       </c>
       <c r="B1298">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1299" spans="1:2" x14ac:dyDescent="0.25">
@@ -10754,7 +10754,7 @@
         <v>0</v>
       </c>
       <c r="B1299">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1300" spans="1:2" x14ac:dyDescent="0.25">
@@ -10762,7 +10762,7 @@
         <v>0</v>
       </c>
       <c r="B1300">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1301" spans="1:2" x14ac:dyDescent="0.25">
@@ -10770,7 +10770,7 @@
         <v>0</v>
       </c>
       <c r="B1301">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1302" spans="1:2" x14ac:dyDescent="0.25">
@@ -10778,7 +10778,7 @@
         <v>0</v>
       </c>
       <c r="B1302">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1303" spans="1:2" x14ac:dyDescent="0.25">
@@ -10786,7 +10786,7 @@
         <v>0</v>
       </c>
       <c r="B1303">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1304" spans="1:2" x14ac:dyDescent="0.25">
@@ -10794,7 +10794,7 @@
         <v>0</v>
       </c>
       <c r="B1304">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1305" spans="1:2" x14ac:dyDescent="0.25">
@@ -10802,7 +10802,7 @@
         <v>0</v>
       </c>
       <c r="B1305">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1306" spans="1:2" x14ac:dyDescent="0.25">
@@ -10810,7 +10810,7 @@
         <v>0</v>
       </c>
       <c r="B1306">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1307" spans="1:2" x14ac:dyDescent="0.25">
@@ -10818,7 +10818,7 @@
         <v>0</v>
       </c>
       <c r="B1307">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1308" spans="1:2" x14ac:dyDescent="0.25">
@@ -10826,7 +10826,7 @@
         <v>0</v>
       </c>
       <c r="B1308">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1309" spans="1:2" x14ac:dyDescent="0.25">
@@ -10834,7 +10834,7 @@
         <v>0</v>
       </c>
       <c r="B1309">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1310" spans="1:2" x14ac:dyDescent="0.25">
@@ -10842,7 +10842,7 @@
         <v>0</v>
       </c>
       <c r="B1310">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1311" spans="1:2" x14ac:dyDescent="0.25">
@@ -10850,7 +10850,7 @@
         <v>0</v>
       </c>
       <c r="B1311">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1312" spans="1:2" x14ac:dyDescent="0.25">
@@ -10858,7 +10858,7 @@
         <v>0</v>
       </c>
       <c r="B1312">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1313" spans="1:2" x14ac:dyDescent="0.25">
@@ -10866,7 +10866,7 @@
         <v>0</v>
       </c>
       <c r="B1313">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1314" spans="1:2" x14ac:dyDescent="0.25">
@@ -10874,7 +10874,7 @@
         <v>0</v>
       </c>
       <c r="B1314">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1315" spans="1:2" x14ac:dyDescent="0.25">
@@ -10882,7 +10882,7 @@
         <v>0</v>
       </c>
       <c r="B1315">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1316" spans="1:2" x14ac:dyDescent="0.25">
@@ -10890,7 +10890,7 @@
         <v>0</v>
       </c>
       <c r="B1316">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1317" spans="1:2" x14ac:dyDescent="0.25">
@@ -10898,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="B1317">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1318" spans="1:2" x14ac:dyDescent="0.25">
@@ -10906,7 +10906,7 @@
         <v>0</v>
       </c>
       <c r="B1318">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1319" spans="1:2" x14ac:dyDescent="0.25">
@@ -10914,7 +10914,7 @@
         <v>0</v>
       </c>
       <c r="B1319">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1320" spans="1:2" x14ac:dyDescent="0.25">
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="B1320">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1321" spans="1:2" x14ac:dyDescent="0.25">
@@ -10930,7 +10930,7 @@
         <v>0</v>
       </c>
       <c r="B1321">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1322" spans="1:2" x14ac:dyDescent="0.25">
@@ -10938,7 +10938,7 @@
         <v>0</v>
       </c>
       <c r="B1322">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1323" spans="1:2" x14ac:dyDescent="0.25">
@@ -10946,7 +10946,7 @@
         <v>0</v>
       </c>
       <c r="B1323">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1324" spans="1:2" x14ac:dyDescent="0.25">
@@ -10954,7 +10954,7 @@
         <v>0</v>
       </c>
       <c r="B1324">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1325" spans="1:2" x14ac:dyDescent="0.25">
@@ -10962,7 +10962,7 @@
         <v>0</v>
       </c>
       <c r="B1325">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1326" spans="1:2" x14ac:dyDescent="0.25">
@@ -10970,7 +10970,7 @@
         <v>0</v>
       </c>
       <c r="B1326">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1327" spans="1:2" x14ac:dyDescent="0.25">
@@ -10978,7 +10978,7 @@
         <v>0</v>
       </c>
       <c r="B1327">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1328" spans="1:2" x14ac:dyDescent="0.25">
@@ -10986,7 +10986,7 @@
         <v>0</v>
       </c>
       <c r="B1328">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1329" spans="1:2" x14ac:dyDescent="0.25">
@@ -10994,7 +10994,7 @@
         <v>0</v>
       </c>
       <c r="B1329">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1330" spans="1:2" x14ac:dyDescent="0.25">
@@ -11002,7 +11002,7 @@
         <v>0</v>
       </c>
       <c r="B1330">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1331" spans="1:2" x14ac:dyDescent="0.25">
@@ -11010,7 +11010,7 @@
         <v>0</v>
       </c>
       <c r="B1331">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1332" spans="1:2" x14ac:dyDescent="0.25">
@@ -11018,7 +11018,7 @@
         <v>0</v>
       </c>
       <c r="B1332">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1333" spans="1:2" x14ac:dyDescent="0.25">
@@ -11026,7 +11026,7 @@
         <v>0</v>
       </c>
       <c r="B1333">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1334" spans="1:2" x14ac:dyDescent="0.25">
@@ -11034,7 +11034,7 @@
         <v>0</v>
       </c>
       <c r="B1334">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1335" spans="1:2" x14ac:dyDescent="0.25">
@@ -11042,7 +11042,7 @@
         <v>0</v>
       </c>
       <c r="B1335">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1336" spans="1:2" x14ac:dyDescent="0.25">
@@ -11050,7 +11050,7 @@
         <v>0</v>
       </c>
       <c r="B1336">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1337" spans="1:2" x14ac:dyDescent="0.25">
@@ -11058,7 +11058,7 @@
         <v>0</v>
       </c>
       <c r="B1337">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1338" spans="1:2" x14ac:dyDescent="0.25">
@@ -11066,7 +11066,7 @@
         <v>0</v>
       </c>
       <c r="B1338">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1339" spans="1:2" x14ac:dyDescent="0.25">
@@ -11074,7 +11074,7 @@
         <v>0</v>
       </c>
       <c r="B1339">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1340" spans="1:2" x14ac:dyDescent="0.25">
@@ -11082,7 +11082,7 @@
         <v>0</v>
       </c>
       <c r="B1340">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1341" spans="1:2" x14ac:dyDescent="0.25">
@@ -11090,7 +11090,7 @@
         <v>0</v>
       </c>
       <c r="B1341">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1342" spans="1:2" x14ac:dyDescent="0.25">
@@ -11098,7 +11098,7 @@
         <v>0</v>
       </c>
       <c r="B1342">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1343" spans="1:2" x14ac:dyDescent="0.25">
@@ -11106,7 +11106,7 @@
         <v>0</v>
       </c>
       <c r="B1343">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1344" spans="1:2" x14ac:dyDescent="0.25">
@@ -11114,7 +11114,7 @@
         <v>0</v>
       </c>
       <c r="B1344">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1345" spans="1:2" x14ac:dyDescent="0.25">
@@ -11231,370 +11231,370 @@
     </row>
     <row r="1359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1359">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1359">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1360">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1360">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1361">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1361">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1362">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1362">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1363">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1363">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1364">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1364">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1365">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1365">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1366">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1366">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1367">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1367">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1368">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1368">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1369">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1369">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1370">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1370">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1371">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1371">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1372">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1372">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1373">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1373">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1374">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1374">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1375">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1375">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1376">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1376">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1377">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1377">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1378">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1378">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1379">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1379">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1380">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1380">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1381">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1381">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1382">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1382">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1383">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1383">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1384">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1384">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1385">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1385">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1386">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1386">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1387">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1387">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1388">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1388">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1389">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1389">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1390">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1390">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1391">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1391">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1392">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1392">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1393">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1393">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1394">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1394">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1395">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1395">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1396">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1396">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1397">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1397">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1398">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1398">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1399">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1399">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1400">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1400">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1401">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1401">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1402">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1402">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1403">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1403">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1404">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1404">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1405" spans="1:2" x14ac:dyDescent="0.25">
@@ -11602,7 +11602,7 @@
         <v>1</v>
       </c>
       <c r="B1405">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1406" spans="1:2" x14ac:dyDescent="0.25">
@@ -11610,7 +11610,7 @@
         <v>1</v>
       </c>
       <c r="B1406">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1407" spans="1:2" x14ac:dyDescent="0.25">
@@ -11618,7 +11618,7 @@
         <v>1</v>
       </c>
       <c r="B1407">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1408" spans="1:2" x14ac:dyDescent="0.25">
@@ -11626,7 +11626,7 @@
         <v>1</v>
       </c>
       <c r="B1408">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1409" spans="1:2" x14ac:dyDescent="0.25">
@@ -11634,7 +11634,7 @@
         <v>1</v>
       </c>
       <c r="B1409">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1410" spans="1:2" x14ac:dyDescent="0.25">
